--- a/data/trans_orig/IP44S2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP44S2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27C99FC-0792-4086-84A3-479C3E28667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3272408C-FF98-43EF-8530-1278532FB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC96C998-162D-4B8F-A52B-E403B5B367FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C94011E-4835-44B6-BE1D-9A346DBCA993}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>Adultos según si han tenido o no algún retraso en el pago de recibos como en 2023 (Tasa respuesta: 0,21%)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>19,24%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -531,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4289D869-256D-43C5-A6FF-D4C5C4492D46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330569CD-5CB5-4BBC-824F-9BF7BFD16B18}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -793,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -808,13 +805,13 @@
         <v>1117</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -823,13 +820,13 @@
         <v>913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -838,13 +835,13 @@
         <v>2030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -999,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1014,13 +1011,13 @@
         <v>1117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1029,13 +1026,13 @@
         <v>913</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1044,18 +1041,18 @@
         <v>2030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
